--- a/foundPath/50000pathNodes.xlsx
+++ b/foundPath/50000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -78,7 +78,7 @@
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
     <col min="2" max="2" width="5.140625" customWidth="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -98,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0">
         <v>630</v>
@@ -115,7 +115,7 @@
         <v>890</v>
       </c>
       <c r="B3" s="0">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C3" s="0">
         <v>8</v>
@@ -129,13 +129,13 @@
         <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C4" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0">
-        <v>4.1269841269841274</v>
+        <v>4.0404040404040407</v>
       </c>
     </row>
     <row r="5">
@@ -143,13 +143,13 @@
         <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>4.8412698412698409</v>
+        <v>4.7070707070707076</v>
       </c>
     </row>
     <row r="6">
@@ -157,13 +157,13 @@
         <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C6" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>7.0634920634920633</v>
+        <v>5.2953060011883544</v>
       </c>
     </row>
     <row r="7">
@@ -171,13 +171,13 @@
         <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="C7" s="0">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0">
-        <v>8.765619723066532</v>
+        <v>5.8216217906620384</v>
       </c>
     </row>
     <row r="8">
@@ -185,13 +185,13 @@
         <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>800</v>
+        <v>710</v>
       </c>
       <c r="C8" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D8" s="0">
-        <v>10.834585240307909</v>
+        <v>6.7518543488015732</v>
       </c>
     </row>
     <row r="9">
@@ -199,27 +199,27 @@
         <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="C9" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="0">
-        <v>11.147085240307909</v>
+        <v>10.611503471608589</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="C10" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="0">
-        <v>13.1966701133124</v>
+        <v>10.901358544072361</v>
       </c>
     </row>
     <row r="11">
@@ -227,419 +227,419 @@
         <v>880</v>
       </c>
       <c r="B11" s="0">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="C11" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D11" s="0">
-        <v>15.11447833249048</v>
+        <v>14.19639973132511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C12" s="0">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D12" s="0">
-        <v>16.893123953999609</v>
+        <v>16.308229067456288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="B13" s="0">
         <v>990</v>
       </c>
       <c r="C13" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0">
-        <v>17.783906393483651</v>
+        <v>16.936768428511002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="B14" s="0">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="C14" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0">
-        <v>18.78544841444587</v>
+        <v>18.969557498965351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="B15" s="0">
-        <v>920</v>
+        <v>1010</v>
       </c>
       <c r="C15" s="0">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0">
-        <v>20.1553114281445</v>
+        <v>19.457362377014132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>730</v>
+        <v>780</v>
       </c>
       <c r="B16" s="0">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="0">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0">
-        <v>21.710231933436589</v>
+        <v>20.8549048629515</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>690</v>
+        <v>750</v>
       </c>
       <c r="B17" s="0">
-        <v>840</v>
+        <v>960</v>
       </c>
       <c r="C17" s="0">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D17" s="0">
-        <v>23.02602140712079</v>
+        <v>23.9799048629515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="B18" s="0">
-        <v>840</v>
+        <v>920</v>
       </c>
       <c r="C18" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0">
-        <v>23.815495091331321</v>
+        <v>26.208610606528609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>590</v>
+        <v>730</v>
       </c>
       <c r="B19" s="0">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="C19" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0">
-        <v>25.70643272491068</v>
+        <v>28.041101995692021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>510</v>
+        <v>700</v>
       </c>
       <c r="B20" s="0">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="C20" s="0">
-        <v>39</v>
+        <v>20.70341850851775</v>
       </c>
       <c r="D20" s="0">
-        <v>27.925654476941201</v>
+        <v>30.22912213211492</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>480</v>
+        <v>660</v>
       </c>
       <c r="B21" s="0">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="C21" s="0">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0">
-        <v>28.747025297764161</v>
+        <v>32.734280540928161</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="B22" s="0">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="C22" s="0">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D22" s="0">
-        <v>29.708505637887889</v>
+        <v>33.359280540928161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>420</v>
+        <v>640</v>
       </c>
       <c r="B23" s="0">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="C23" s="0">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D23" s="0">
-        <v>31.024295111572101</v>
+        <v>33.914836096483718</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="B24" s="0">
         <v>820</v>
       </c>
       <c r="C24" s="0">
-        <v>39</v>
+        <v>20.379030654534951</v>
       </c>
       <c r="D24" s="0">
-        <v>31.537115624392609</v>
+        <v>34.930605132316842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="B25" s="0">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="C25" s="0">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0">
-        <v>33.515238509032592</v>
+        <v>36.35572758926498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="B26" s="0">
-        <v>710</v>
+        <v>880</v>
       </c>
       <c r="C26" s="0">
-        <v>39</v>
+        <v>25.79757424973122</v>
       </c>
       <c r="D26" s="0">
-        <v>34.676832263577928</v>
+        <v>39.81064498098474</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B27" s="0">
-        <v>650</v>
+        <v>890</v>
       </c>
       <c r="C27" s="0">
-        <v>38</v>
+        <v>23.529934170619271</v>
       </c>
       <c r="D27" s="0">
-        <v>36.419222895395947</v>
+        <v>41.092800825233198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="B28" s="0">
-        <v>610</v>
+        <v>890</v>
       </c>
       <c r="C28" s="0">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D28" s="0">
-        <v>37.504250691611119</v>
+        <v>42.355163187962702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>530</v>
+        <v>400</v>
       </c>
       <c r="B29" s="0">
-        <v>540</v>
+        <v>860</v>
       </c>
       <c r="C29" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D29" s="0">
-        <v>39.420069083527054</v>
+        <v>45.627457789181904</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="B30" s="0">
-        <v>470</v>
+        <v>850</v>
       </c>
       <c r="C30" s="0">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0">
-        <v>41.36143172066852</v>
+        <v>46.413131990500283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>550</v>
+        <v>370</v>
       </c>
       <c r="B31" s="0">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="C31" s="0">
-        <v>37</v>
+        <v>20.379030654534951</v>
       </c>
       <c r="D31" s="0">
-        <v>42.172242531479327</v>
+        <v>49.148173822473026</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>520</v>
+        <v>370</v>
       </c>
       <c r="B32" s="0">
-        <v>430</v>
+        <v>770</v>
       </c>
       <c r="C32" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D32" s="0">
-        <v>43.026912169362681</v>
+        <v>50.598183623353279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="B33" s="0">
-        <v>420</v>
+        <v>740</v>
       </c>
       <c r="C33" s="0">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D33" s="0">
-        <v>44.912530252526807</v>
+        <v>52.003640361205889</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B34" s="0">
-        <v>400</v>
+        <v>680</v>
       </c>
       <c r="C34" s="0">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D34" s="0">
-        <v>46.803467886106162</v>
+        <v>54.831523714510979</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>350</v>
+        <v>490</v>
       </c>
       <c r="B35" s="0">
-        <v>390</v>
+        <v>600</v>
       </c>
       <c r="C35" s="0">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D35" s="0">
-        <v>47.624838706929118</v>
+        <v>58.561399438277519</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="B36" s="0">
-        <v>360</v>
+        <v>520</v>
       </c>
       <c r="C36" s="0">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D36" s="0">
-        <v>49.013727595817997</v>
+        <v>61.991938031752653</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="B37" s="0">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="C37" s="0">
-        <v>37</v>
+        <v>20.961723555504101</v>
       </c>
       <c r="D37" s="0">
-        <v>50.727181829704833</v>
+        <v>64.63881985416846</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>340</v>
+        <v>550</v>
       </c>
       <c r="B38" s="0">
-        <v>270</v>
+        <v>430</v>
       </c>
       <c r="C38" s="0">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D38" s="0">
-        <v>51.688662169828547</v>
+        <v>65.973288269862792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>390</v>
+        <v>540</v>
       </c>
       <c r="B39" s="0">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="C39" s="0">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D39" s="0">
-        <v>53.351811322408523</v>
+        <v>67.064053136935854</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="B40" s="0">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="C40" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D40" s="0">
-        <v>55.493684374677429</v>
+        <v>67.84972733825424</v>
       </c>
     </row>
     <row r="41">
@@ -647,223 +647,349 @@
         <v>500</v>
       </c>
       <c r="B41" s="0">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="C41" s="0">
-        <v>38</v>
+        <v>17.38662117593066</v>
       </c>
       <c r="D41" s="0">
-        <v>56.32586270630069</v>
+        <v>69.587881394866784</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="B42" s="0">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="C42" s="0">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D42" s="0">
-        <v>58.186670025212663</v>
+        <v>70.629911111852678</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>620</v>
+        <v>410</v>
       </c>
       <c r="B43" s="0">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C43" s="0">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D43" s="0">
-        <v>59.528517265631812</v>
+        <v>73.458338236598863</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="B44" s="0">
-        <v>180</v>
+        <v>390</v>
       </c>
       <c r="C44" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D44" s="0">
-        <v>61.086958824073371</v>
+        <v>75.753720323503856</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="B45" s="0">
-        <v>190</v>
+        <v>380</v>
       </c>
       <c r="C45" s="0">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D45" s="0">
-        <v>62.446697361031447</v>
+        <v>76.844485190576918</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>790</v>
+        <v>310</v>
       </c>
       <c r="B46" s="0">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="C46" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D46" s="0">
-        <v>64.136353619447618</v>
+        <v>78.46072926186045</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>850</v>
+        <v>290</v>
       </c>
       <c r="B47" s="0">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C47" s="0">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D47" s="0">
-        <v>65.901670443789556</v>
+        <v>81.452487488046287</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>870</v>
+        <v>290</v>
       </c>
       <c r="B48" s="0">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="C48" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D48" s="0">
-        <v>67.033856761510975</v>
+        <v>81.978803277519972</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="B49" s="0">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="C49" s="0">
-        <v>39</v>
+        <v>17.38662117593066</v>
       </c>
       <c r="D49" s="0">
-        <v>68.98661909634788</v>
+        <v>83.174989457050614</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="B50" s="0">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="C50" s="0">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D50" s="0">
-        <v>70.525080634809413</v>
+        <v>86.775292713778754</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="B51" s="0">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="C51" s="0">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D51" s="0">
-        <v>71.790903419619539</v>
+        <v>87.299075514657673</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="B52" s="0">
-        <v>520</v>
+        <v>190</v>
       </c>
       <c r="C52" s="0">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D52" s="0">
-        <v>73.657570086286199</v>
+        <v>88.634464875940637</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>880</v>
+        <v>460</v>
       </c>
       <c r="B53" s="0">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="C53" s="0">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D53" s="0">
-        <v>67.821465159264207</v>
+        <v>91.489409930560441</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>880</v>
+        <v>500</v>
       </c>
       <c r="B54" s="0">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="C54" s="0">
-        <v>38</v>
+        <v>26.826314754735218</v>
       </c>
       <c r="D54" s="0">
-        <v>69.899387237186289</v>
+        <v>93.033027306763927</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>880</v>
+        <v>540</v>
       </c>
       <c r="B55" s="0">
-        <v>510</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D55" s="0">
-        <v>70.159127496926544</v>
+        <v>94.416480503449762</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>880</v>
+        <v>670</v>
       </c>
       <c r="B56" s="0">
-        <v>520</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0">
         <v>37</v>
       </c>
       <c r="D56" s="0">
-        <v>70.42228539166338</v>
+        <v>98.240009915214472</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>730</v>
+      </c>
+      <c r="B57" s="0">
+        <v>180</v>
+      </c>
+      <c r="C57" s="0">
+        <v>32.589046926199472</v>
+      </c>
+      <c r="D57" s="0">
+        <v>99.988205299108472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>800</v>
+      </c>
+      <c r="B58" s="0">
+        <v>200</v>
+      </c>
+      <c r="C58" s="0">
+        <v>35.237267828535749</v>
+      </c>
+      <c r="D58" s="0">
+        <v>102.1348971592238</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>880</v>
+      </c>
+      <c r="B59" s="0">
+        <v>250</v>
+      </c>
+      <c r="C59" s="0">
+        <v>26.724455726968291</v>
+      </c>
+      <c r="D59" s="0">
+        <v>105.1799968080758</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>900</v>
+      </c>
+      <c r="B60" s="0">
+        <v>270</v>
+      </c>
+      <c r="C60" s="0">
+        <v>25</v>
+      </c>
+      <c r="D60" s="0">
+        <v>106.2736485768547</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>920</v>
+      </c>
+      <c r="B61" s="0">
+        <v>320</v>
+      </c>
+      <c r="C61" s="0">
+        <v>20</v>
+      </c>
+      <c r="D61" s="0">
+        <v>108.6670551578034</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>920</v>
+      </c>
+      <c r="B62" s="0">
+        <v>330</v>
+      </c>
+      <c r="C62" s="0">
+        <v>21</v>
+      </c>
+      <c r="D62" s="0">
+        <v>109.1548600358522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>920</v>
+      </c>
+      <c r="B63" s="0">
+        <v>350</v>
+      </c>
+      <c r="C63" s="0">
+        <v>24</v>
+      </c>
+      <c r="D63" s="0">
+        <v>110.043748924741</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>920</v>
+      </c>
+      <c r="B64" s="0">
+        <v>460</v>
+      </c>
+      <c r="C64" s="0">
+        <v>35</v>
+      </c>
+      <c r="D64" s="0">
+        <v>113.7725624840631</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>930</v>
+      </c>
+      <c r="B65" s="0">
+        <v>530</v>
+      </c>
+      <c r="C65" s="0">
+        <v>33.773242351861377</v>
+      </c>
+      <c r="D65" s="0">
+        <v>115.82890520400871</v>
       </c>
     </row>
   </sheetData>

--- a/foundPath/50000pathNodes.xlsx
+++ b/foundPath/50000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="4">
   <si>
     <t>X</t>
   </si>

--- a/foundPath/50000pathNodes.xlsx
+++ b/foundPath/50000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="40" uniqueCount="4">
   <si>
     <t>X</t>
   </si>

--- a/foundPath/50000pathNodes.xlsx
+++ b/foundPath/50000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="40" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="48" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
